--- a/result/Autocall Premium Juillet 2022- FR001400B4A4result.xlsx
+++ b/result/Autocall Premium Juillet 2022- FR001400B4A4result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28692" yWindow="-72" windowWidth="29016" windowHeight="15816" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATE" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
 
@@ -437,11 +437,11 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>29/08/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-07-31</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1032,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Balise</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Resultat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Flux</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1050,25 +1073,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dates de constatations</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28/11/2023, 28/02/2024, 28/05/2024, 28/08/2024, 28/11/2024, 28/02/2025, 28/05/2025, 28/08/2025, 28/11/2025, 02/03/2026, 28/05/2026, 28/08/2026, 30/11/2026, 01/03/2027, 28/05/2027, 30/08/2027, 29/11/2027, 28/02/2028, 29/05/2028, 28/08/2028, 28/11/2028, 28/02/2029, 28/05/2029, 28/08/2029, 28/11/2029, 28/02/2030, 28/05/2030, 28/08/2030, 28/11/2030, 28/02/2031, 28/05/2031, 28/08/2031, 28/11/2031, 01/03/2032, 28/05/2032, 29/07/2032</t>
+          <t>31/07/2023, 30/10/2023, 29/01/2024, 29/04/2024, 29/07/2024, 29/10/2024, 29/01/2025, 29/04/2025, 29/07/2025, 29/10/2025, 29/01/2026, 29/04/2026, 29/07/2026, 29/10/2026, 29/01/2027, 29/04/2027, 29/07/2027, 29/10/2027, 31/01/2028, 02/05/2028, 31/07/2028, 30/10/2028, 29/01/2029, 30/04/2029, 30/07/2029, 29/10/2029, 29/01/2030, 29/04/2030, 29/07/2030, 29/10/2030, 29/01/2031, 29/04/2031, 29/07/2031, 29/10/2031, 29/01/2032, 29/04/2032, 29/07/2032, 29/07/2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dates de remboursement</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/12/2023, 13/03/2024, 11/06/2024, 11/09/2024, 12/12/2024, 14/03/2025, 11/06/2025, 11/09/2025, 12/12/2025, 16/03/2026, 11/06/2026, 11/09/2026, 14/12/2026, 15/03/2027, 11/06/2027, 13/09/2027, 13/12/2027, 13/03/2028, 12/06/2028, 11/09/2028, 12/12/2028, 14/03/2029, 11/06/2029, 11/09/2029, 12/12/2029, 14/03/2030, 11/06/2030, 11/09/2030, 12/12/2030, 14/03/2031, 11/06/2031, 11/09/2031, 12/12/2031, 15/03/2032</t>
+          <t>26/09/2023, 28/12/2023, 26/03/2024, 26/06/2024, 24/09/2024, 27/12/2024, 27/03/2025, 26/06/2025, 24/09/2025, 29/12/2025, 27/03/2026, 26/06/2026, 24/09/2026, 28/12/2026, 31/03/2027, 25/06/2027, 24/09/2027, 27/12/2027, 28/03/2028, 28/06/2028, 26/09/2028, 28/12/2028, 27/03/2029, 27/06/2029, 25/09/2029, 27/12/2029, 27/03/2030, 26/06/2030, 24/09/2030, 27/12/2030, 27/03/2031, 26/06/2031, 24/09/2031, 29/12/2031, 30/03/2032, 25/06/2032</t>
         </is>
       </c>
     </row>
